--- a/docss/trend/ireland/E_huntington.xlsx
+++ b/docss/trend/ireland/E_huntington.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Elena\Desktop\IC3-Design\docs\trend\ireland\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ELENA\Documents\IC3\ic3desarrollo\docss\trend\ireland\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -1559,10 +1559,13 @@
   <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="6" max="6" width="11.85546875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -1583,13 +1586,13 @@
         <v>2007</v>
       </c>
       <c r="B2" s="7">
-        <v>7.7297918498516083E-2</v>
+        <v>7.6999999999999999E-2</v>
       </c>
       <c r="C2" s="7">
-        <v>5.6064024567604065E-2</v>
+        <v>5.6000000000000001E-2</v>
       </c>
       <c r="D2" s="7">
-        <v>9.4584334641695023E-2</v>
+        <v>9.5000000000000001E-2</v>
       </c>
       <c r="E2" s="7"/>
     </row>
@@ -1597,14 +1600,14 @@
       <c r="A3">
         <v>2008</v>
       </c>
-      <c r="B3" s="7">
-        <v>4.3032422661781311E-2</v>
-      </c>
-      <c r="C3" s="7">
+      <c r="B3">
+        <v>4.2999999999999997E-2</v>
+      </c>
+      <c r="C3">
         <v>0</v>
       </c>
-      <c r="D3" s="7">
-        <v>8.6958367377519608E-2</v>
+      <c r="D3">
+        <v>8.6999999999999994E-2</v>
       </c>
       <c r="E3" s="7"/>
     </row>
@@ -1612,14 +1615,14 @@
       <c r="A4">
         <v>2009</v>
       </c>
-      <c r="B4" s="7">
-        <v>9.6612663939595222E-2</v>
-      </c>
-      <c r="C4" s="7">
-        <v>9.9990192800760269E-2</v>
-      </c>
-      <c r="D4" s="7">
-        <v>9.1697059571743011E-2</v>
+      <c r="B4">
+        <v>9.7000000000000003E-2</v>
+      </c>
+      <c r="C4">
+        <v>0.1</v>
+      </c>
+      <c r="D4">
+        <v>9.1999999999999998E-2</v>
       </c>
       <c r="E4" s="7"/>
     </row>
@@ -1627,14 +1630,14 @@
       <c r="A5">
         <v>2010</v>
       </c>
-      <c r="B5" s="7">
-        <v>0.15138524584472179</v>
-      </c>
-      <c r="C5" s="7">
-        <v>0.18258414417505264</v>
-      </c>
-      <c r="D5" s="7">
-        <v>0.13722441345453262</v>
+      <c r="B5">
+        <v>0.151</v>
+      </c>
+      <c r="C5">
+        <v>0.183</v>
+      </c>
+      <c r="D5">
+        <v>0.13700000000000001</v>
       </c>
       <c r="E5" s="7"/>
     </row>
@@ -1642,14 +1645,14 @@
       <c r="A6">
         <v>2011</v>
       </c>
-      <c r="B6" s="7">
-        <v>0.14369509555399418</v>
-      </c>
-      <c r="C6" s="7">
-        <v>4.7098085284233093E-2</v>
-      </c>
-      <c r="D6" s="7">
-        <v>0.22820606455206871</v>
+      <c r="B6">
+        <v>0.14399999999999999</v>
+      </c>
+      <c r="C6">
+        <v>4.7E-2</v>
+      </c>
+      <c r="D6">
+        <v>0.22800000000000001</v>
       </c>
       <c r="E6" s="7"/>
     </row>
@@ -1657,14 +1660,14 @@
       <c r="A7">
         <v>2012</v>
       </c>
-      <c r="B7" s="7">
-        <v>0.14469658024609089</v>
-      </c>
-      <c r="C7" s="7">
-        <v>0.16455807536840439</v>
-      </c>
-      <c r="D7" s="7">
-        <v>0.12878356128931046</v>
+      <c r="B7">
+        <v>0.14499999999999999</v>
+      </c>
+      <c r="C7">
+        <v>0.16500000000000001</v>
+      </c>
+      <c r="D7">
+        <v>0.129</v>
       </c>
       <c r="E7" s="7"/>
     </row>
@@ -1672,14 +1675,14 @@
       <c r="A8">
         <v>2013</v>
       </c>
-      <c r="B8" s="7">
-        <v>0.20002271234989166</v>
-      </c>
-      <c r="C8" s="7">
-        <v>0.27989636361598969</v>
-      </c>
-      <c r="D8" s="7">
-        <v>0.1212308295071125</v>
+      <c r="B8">
+        <v>0.2</v>
+      </c>
+      <c r="C8">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="D8">
+        <v>0.121</v>
       </c>
       <c r="E8" s="7"/>
     </row>
@@ -1690,9 +1693,6 @@
       <c r="E9" s="7"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B10" s="7"/>
-      <c r="C10" s="7"/>
-      <c r="D10" s="7"/>
       <c r="E10" s="7"/>
     </row>
   </sheetData>
